--- a/02_Output/Manual_Count_Timeframe-1_Hour_Intervall/018_man_data.xlsx
+++ b/02_Output/Manual_Count_Timeframe-1_Hour_Intervall/018_man_data.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -750,54 +750,54 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>45392.83333333334</v>
+        <v>45392.66666666666</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I8" t="n">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="J8" t="n">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="K8" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="L8" s="3" t="n">
         <v>45392</v>
       </c>
       <c r="M8" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>45392.84027777778</v>
+        <v>45392.67361111111</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -806,191 +806,437 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I9" t="n">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="J9" t="n">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="K9" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L9" s="3" t="n">
         <v>45392</v>
       </c>
       <c r="M9" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>45392.84722222222</v>
+        <v>45392.68055555555</v>
       </c>
       <c r="C10" t="n">
         <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="I10" t="n">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="J10" t="n">
-        <v>81</v>
+        <v>179</v>
       </c>
       <c r="K10" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L10" s="3" t="n">
         <v>45392</v>
       </c>
       <c r="M10" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>45392.85416666666</v>
+        <v>45392.6875</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I11" t="n">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="J11" t="n">
-        <v>83</v>
+        <v>131</v>
       </c>
       <c r="K11" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L11" s="3" t="n">
         <v>45392</v>
       </c>
       <c r="M11" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>45392.86111111111</v>
+        <v>45392.69444444445</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I12" t="n">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="J12" t="n">
-        <v>85</v>
+        <v>165</v>
       </c>
       <c r="K12" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L12" s="3" t="n">
         <v>45392</v>
       </c>
       <c r="M12" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>45392.70138888889</v>
+      </c>
+      <c r="C13" t="n">
+        <v>4</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>4</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>60</v>
+      </c>
+      <c r="J13" t="n">
+        <v>181</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3" t="n">
+        <v>45392</v>
+      </c>
+      <c r="M13" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>45392.83333333334</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+      <c r="I14" t="n">
+        <v>34</v>
+      </c>
+      <c r="J14" t="n">
+        <v>79</v>
+      </c>
+      <c r="K14" t="n">
+        <v>11</v>
+      </c>
+      <c r="L14" s="3" t="n">
+        <v>45392</v>
+      </c>
+      <c r="M14" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>45392.84027777778</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+      <c r="I15" t="n">
+        <v>30</v>
+      </c>
+      <c r="J15" t="n">
+        <v>87</v>
+      </c>
+      <c r="K15" t="n">
+        <v>7</v>
+      </c>
+      <c r="L15" s="3" t="n">
+        <v>45392</v>
+      </c>
+      <c r="M15" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B13" s="2" t="n">
+      <c r="B16" s="2" t="n">
+        <v>45392.84722222222</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>48</v>
+      </c>
+      <c r="J16" t="n">
+        <v>81</v>
+      </c>
+      <c r="K16" t="n">
+        <v>5</v>
+      </c>
+      <c r="L16" s="3" t="n">
+        <v>45392</v>
+      </c>
+      <c r="M16" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>45392.85416666666</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+      <c r="I17" t="n">
+        <v>30</v>
+      </c>
+      <c r="J17" t="n">
+        <v>83</v>
+      </c>
+      <c r="K17" t="n">
+        <v>9</v>
+      </c>
+      <c r="L17" s="3" t="n">
+        <v>45392</v>
+      </c>
+      <c r="M17" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>45392.86111111111</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>3</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+      <c r="I18" t="n">
+        <v>26</v>
+      </c>
+      <c r="J18" t="n">
+        <v>85</v>
+      </c>
+      <c r="K18" t="n">
+        <v>5</v>
+      </c>
+      <c r="L18" s="3" t="n">
+        <v>45392</v>
+      </c>
+      <c r="M18" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B19" s="2" t="n">
         <v>45392.86805555555</v>
       </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" t="n">
-        <v>2</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>2</v>
-      </c>
-      <c r="H13" t="n">
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>2</v>
+      </c>
+      <c r="H19" t="n">
         <v>3</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I19" t="n">
         <v>35</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J19" t="n">
         <v>81</v>
       </c>
-      <c r="K13" t="n">
+      <c r="K19" t="n">
         <v>3</v>
       </c>
-      <c r="L13" s="3" t="n">
-        <v>45392</v>
-      </c>
-      <c r="M13" t="n">
+      <c r="L19" s="3" t="n">
+        <v>45392</v>
+      </c>
+      <c r="M19" t="n">
         <v>20</v>
       </c>
     </row>
